--- a/evaluation/results/isolation_forest/augmented/noise_1/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_1/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
       <c r="C2">
-        <v>0.8466257668711656</v>
+        <v>0.5650224215246636</v>
       </c>
       <c r="D2">
-        <v>0.5168539325842697</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="E2">
-        <v>0.641860465116279</v>
+        <v>0.7068723702664796</v>
       </c>
       <c r="F2">
-        <v>0.5605199025182778</v>
+        <v>0.8322324966974901</v>
       </c>
       <c r="G2">
-        <v>0.5247148288973384</v>
+        <v>0.9200954922061508</v>
       </c>
       <c r="H2">
-        <v>0.7116104868913857</v>
+        <v>0.7761207900237064</v>
       </c>
       <c r="I2">
-        <v>276</v>
+        <v>504</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="K2">
-        <v>484</v>
+        <v>146</v>
       </c>
       <c r="L2">
-        <v>258</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6522911051212938</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="C2">
-        <v>0.9063670411985019</v>
+        <v>0.2734082397003745</v>
       </c>
       <c r="D2">
-        <v>0.7586206896551724</v>
+        <v>0.4112676056338028</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8466257668711656</v>
+        <v>0.5650224215246636</v>
       </c>
       <c r="C3">
-        <v>0.5168539325842697</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="D3">
-        <v>0.641860465116279</v>
+        <v>0.7068723702664796</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
       <c r="C4">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
       <c r="D4">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
       <c r="E4">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7494584359962297</v>
+        <v>0.6972839380350591</v>
       </c>
       <c r="C5">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
       <c r="D5">
-        <v>0.7002405773857256</v>
+        <v>0.5590699879501413</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7494584359962297</v>
+        <v>0.6972839380350591</v>
       </c>
       <c r="C6">
-        <v>0.7116104868913857</v>
+        <v>0.6086142322097379</v>
       </c>
       <c r="D6">
-        <v>0.7002405773857258</v>
+        <v>0.5590699879501412</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>276</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
